--- a/DBV Capital_Transferências.xlsx
+++ b/DBV Capital_Transferências.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1iLWtrs6VMmimr39Gvko-IP3BIROqLVDU\10. B.I\Relatórios\Relatórios Compilados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92E3A2-C5FC-48E0-8619-70D8E81817EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CADC606-8DEC-45B9-942D-30C06E1BFFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20CD1375-7EAB-45F9-9931-D3C72330F3F3}"/>
   </bookViews>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:M1891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64153,6 +64153,9 @@
         <f t="shared" si="9"/>
         <v>Externo</v>
       </c>
+      <c r="M1821">
+        <v>250117.36999998201</v>
+      </c>
     </row>
     <row r="1822" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1822">
@@ -64680,6 +64683,9 @@
         <f t="shared" si="9"/>
         <v>Externo</v>
       </c>
+      <c r="M1835">
+        <v>2405364.6913591502</v>
+      </c>
     </row>
     <row r="1836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1836">
@@ -64828,6 +64834,9 @@
         <f t="shared" si="9"/>
         <v>Externo</v>
       </c>
+      <c r="M1839">
+        <v>124503.077870333</v>
+      </c>
     </row>
     <row r="1840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1840">
@@ -65656,6 +65665,9 @@
       <c r="L1861" t="str">
         <f t="shared" si="9"/>
         <v>Externo</v>
+      </c>
+      <c r="M1861">
+        <v>2454.29407850915</v>
       </c>
     </row>
     <row r="1862" spans="1:13" x14ac:dyDescent="0.3">
